--- a/race_est_data1.xlsx
+++ b/race_est_data1.xlsx
@@ -406,20 +406,20 @@
         </is>
       </c>
       <c r="B2">
-        <v>-3.15</v>
+        <v>-2.952</v>
       </c>
       <c r="C2">
-        <v>0.633</v>
+        <v>0.593</v>
       </c>
       <c r="D2">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E2">
-        <v>-4.974</v>
+        <v>-4.982</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.1779e-06</t>
+          <t>6.7530e-06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -440,20 +440,20 @@
         </is>
       </c>
       <c r="B3">
-        <v>-2.434</v>
+        <v>-2.551</v>
       </c>
       <c r="C3">
-        <v>0.8129999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="D3">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>-2.993</v>
+        <v>-3.361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.3429e-02</t>
+          <t>7.0804e-03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -474,20 +474,20 @@
         </is>
       </c>
       <c r="B4">
-        <v>-2.396</v>
+        <v>-2.041</v>
       </c>
       <c r="C4">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="D4">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E4">
-        <v>-2.03</v>
+        <v>-2.02</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.5198e-01</t>
+          <t>2.5647e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="B5">
-        <v>-2.53</v>
+        <v>-2.397</v>
       </c>
       <c r="C5">
-        <v>0.604</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D5">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E5">
-        <v>-4.187</v>
+        <v>-4.219</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.8701e-04</t>
+          <t>2.4797e-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -542,20 +542,20 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.716</v>
+        <v>0.402</v>
       </c>
       <c r="C6">
-        <v>0.622</v>
+        <v>0.571</v>
       </c>
       <c r="D6">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E6">
-        <v>1.15</v>
+        <v>0.703</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.7952e-01</t>
+          <t>9.5578e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -576,20 +576,20 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.754</v>
+        <v>0.911</v>
       </c>
       <c r="C7">
-        <v>1.055</v>
+        <v>0.878</v>
       </c>
       <c r="D7">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E7">
-        <v>0.715</v>
+        <v>1.038</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.5312e-01</t>
+          <t>8.3758e-01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -610,20 +610,20 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.62</v>
+        <v>0.555</v>
       </c>
       <c r="C8">
-        <v>0.296</v>
+        <v>0.268</v>
       </c>
       <c r="D8">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E8">
-        <v>2.092</v>
+        <v>2.067</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.2380e-01</t>
+          <t>2.3506e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -644,20 +644,20 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.039</v>
+        <v>0.51</v>
       </c>
       <c r="C9">
-        <v>1.174</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>0.033</v>
+        <v>0.511</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.8633e-01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -678,20 +678,20 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.096</v>
+        <v>0.153</v>
       </c>
       <c r="C10">
-        <v>0.593</v>
+        <v>0.546</v>
       </c>
       <c r="D10">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E10">
-        <v>-0.162</v>
+        <v>0.28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.9985e-01</t>
+          <t>9.9865e-01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.135</v>
+        <v>-0.356</v>
       </c>
       <c r="C11">
-        <v>1.039</v>
+        <v>0.862</v>
       </c>
       <c r="D11">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E11">
-        <v>-0.13</v>
+        <v>-0.414</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.9994e-01</t>
+          <t>9.9386e-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -746,20 +746,20 @@
         </is>
       </c>
       <c r="B12">
-        <v>-4.059</v>
+        <v>-4.081</v>
       </c>
       <c r="C12">
-        <v>1.116</v>
+        <v>1.041</v>
       </c>
       <c r="D12">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E12">
-        <v>-3.637</v>
+        <v>-3.922</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.6345e-03</t>
+          <t>8.6188e-04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -780,20 +780,20 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.847</v>
+        <v>-1.287</v>
       </c>
       <c r="C13">
-        <v>1.433</v>
+        <v>1.333</v>
       </c>
       <c r="D13">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E13">
-        <v>-0.591</v>
+        <v>-0.966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.7642e-01</t>
+          <t>8.7061e-01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -814,20 +814,20 @@
         </is>
       </c>
       <c r="B14">
-        <v>-0.155</v>
+        <v>0.55</v>
       </c>
       <c r="C14">
-        <v>2.08</v>
+        <v>1.774</v>
       </c>
       <c r="D14">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E14">
-        <v>-0.075</v>
+        <v>0.31</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.9999e-01</t>
+          <t>9.9799e-01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -848,20 +848,20 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.723</v>
+        <v>0.576</v>
       </c>
       <c r="C15">
-        <v>1.065</v>
+        <v>0.998</v>
       </c>
       <c r="D15">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E15">
-        <v>0.679</v>
+        <v>0.577</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.6108e-01</t>
+          <t>9.7848e-01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -882,20 +882,20 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.212</v>
+        <v>2.794</v>
       </c>
       <c r="C16">
-        <v>1.097</v>
+        <v>1.003</v>
       </c>
       <c r="D16">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E16">
-        <v>2.929</v>
+        <v>2.786</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.8430e-02</t>
+          <t>4.2843e-02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -916,25 +916,25 @@
         </is>
       </c>
       <c r="B17">
-        <v>3.904</v>
+        <v>4.632</v>
       </c>
       <c r="C17">
-        <v>1.86</v>
+        <v>1.541</v>
       </c>
       <c r="D17">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E17">
-        <v>2.099</v>
+        <v>3.005</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.2081e-01</t>
+          <t>2.2566e-02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -950,20 +950,20 @@
         </is>
       </c>
       <c r="B18">
-        <v>4.782</v>
+        <v>4.657</v>
       </c>
       <c r="C18">
-        <v>0.522</v>
+        <v>0.471</v>
       </c>
       <c r="D18">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E18">
-        <v>9.157999999999999</v>
+        <v>9.877000000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.6549e-12</t>
+          <t>4.6531e-11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -984,20 +984,20 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.6919999999999999</v>
+        <v>1.837</v>
       </c>
       <c r="C19">
-        <v>2.068</v>
+        <v>1.752</v>
       </c>
       <c r="D19">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>0.335</v>
+        <v>1.048</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.9730e-01</t>
+          <t>8.3266e-01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.57</v>
+        <v>1.863</v>
       </c>
       <c r="C20">
-        <v>1.045</v>
+        <v>0.959</v>
       </c>
       <c r="D20">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.503</v>
+        <v>1.942</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.6073e-01</t>
+          <t>2.9515e-01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1052,20 +1052,20 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.878</v>
+        <v>0.025</v>
       </c>
       <c r="C21">
-        <v>1.831</v>
+        <v>1.513</v>
       </c>
       <c r="D21">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E21">
-        <v>0.48</v>
+        <v>0.017</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.8921e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1086,20 +1086,20 @@
         </is>
       </c>
       <c r="B22">
-        <v>-6.69</v>
+        <v>-6.777</v>
       </c>
       <c r="C22">
-        <v>1.443</v>
+        <v>1.333</v>
       </c>
       <c r="D22">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E22">
-        <v>-4.636</v>
+        <v>-5.084</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.7629e-05</t>
+          <t>4.0133e-06</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1120,20 +1120,20 @@
         </is>
       </c>
       <c r="B23">
-        <v>-5.635</v>
+        <v>-6</v>
       </c>
       <c r="C23">
-        <v>1.853</v>
+        <v>1.708</v>
       </c>
       <c r="D23">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>-3.041</v>
+        <v>-3.514</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.0224e-02</t>
+          <t>4.1198e-03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1154,20 +1154,20 @@
         </is>
       </c>
       <c r="B24">
-        <v>-4.678</v>
+        <v>-4.059</v>
       </c>
       <c r="C24">
-        <v>2.689</v>
+        <v>2.273</v>
       </c>
       <c r="D24">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>-1.74</v>
+        <v>-1.786</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.0984e-01</t>
+          <t>3.8195e-01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1188,20 +1188,20 @@
         </is>
       </c>
       <c r="B25">
-        <v>-5.34</v>
+        <v>-5.383</v>
       </c>
       <c r="C25">
-        <v>1.377</v>
+        <v>1.278</v>
       </c>
       <c r="D25">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E25">
-        <v>-3.878</v>
+        <v>-4.211</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.0340e-03</t>
+          <t>2.5696e-04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1222,20 +1222,20 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.055</v>
+        <v>0.777</v>
       </c>
       <c r="C26">
-        <v>1.418</v>
+        <v>1.285</v>
       </c>
       <c r="D26">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E26">
-        <v>0.744</v>
+        <v>0.605</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9.4605e-01</t>
+          <t>9.7436e-01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1256,20 +1256,20 @@
         </is>
       </c>
       <c r="B27">
-        <v>2.013</v>
+        <v>2.718</v>
       </c>
       <c r="C27">
-        <v>2.404</v>
+        <v>1.975</v>
       </c>
       <c r="D27">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E27">
-        <v>0.837</v>
+        <v>1.376</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9.1905e-01</t>
+          <t>6.4300e-01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1290,20 +1290,20 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.35</v>
+        <v>1.394</v>
       </c>
       <c r="C28">
-        <v>0.675</v>
+        <v>0.604</v>
       </c>
       <c r="D28">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>2.308</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.6613e-01</t>
+          <t>1.4280e-01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.958</v>
+        <v>1.941</v>
       </c>
       <c r="C29">
-        <v>2.674</v>
+        <v>2.245</v>
       </c>
       <c r="D29">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E29">
-        <v>0.358</v>
+        <v>0.864</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.9648e-01</t>
+          <t>9.0985e-01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1358,20 +1358,20 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.295</v>
+        <v>0.617</v>
       </c>
       <c r="C30">
-        <v>1.351</v>
+        <v>1.228</v>
       </c>
       <c r="D30">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E30">
-        <v>0.219</v>
+        <v>0.502</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.9949e-01</t>
+          <t>9.8719e-01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1392,20 +1392,20 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.662</v>
+        <v>-1.324</v>
       </c>
       <c r="C31">
-        <v>2.367</v>
+        <v>1.938</v>
       </c>
       <c r="D31">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E31">
-        <v>-0.28</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.9866e-01</t>
+          <t>9.6015e-01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1426,20 +1426,20 @@
         </is>
       </c>
       <c r="B32">
-        <v>-6.644</v>
+        <v>-6.691</v>
       </c>
       <c r="C32">
-        <v>1.549</v>
+        <v>1.45</v>
       </c>
       <c r="D32">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E32">
-        <v>-4.289</v>
+        <v>-4.614</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.8392e-04</t>
+          <t>4.1194e-05</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1460,20 +1460,20 @@
         </is>
       </c>
       <c r="B33">
-        <v>-2.098</v>
+        <v>-2.437</v>
       </c>
       <c r="C33">
-        <v>1.989</v>
+        <v>1.857</v>
       </c>
       <c r="D33">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E33">
-        <v>-1.055</v>
+        <v>-1.312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.2957e-01</t>
+          <t>6.8384e-01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1494,20 +1494,20 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.137</v>
+        <v>-1.03</v>
       </c>
       <c r="C34">
-        <v>2.886</v>
+        <v>2.472</v>
       </c>
       <c r="D34">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E34">
-        <v>0.394</v>
+        <v>-0.416</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.9491e-01</t>
+          <t>9.9371e-01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1528,20 +1528,20 @@
         </is>
       </c>
       <c r="B35">
-        <v>-2.249</v>
+        <v>-2.725</v>
       </c>
       <c r="C35">
-        <v>1.478</v>
+        <v>1.391</v>
       </c>
       <c r="D35">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E35">
-        <v>-1.522</v>
+        <v>-1.959</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.4826e-01</t>
+          <t>2.8660e-01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1562,20 +1562,20 @@
         </is>
       </c>
       <c r="B36">
-        <v>4.546</v>
+        <v>4.255</v>
       </c>
       <c r="C36">
-        <v>1.522</v>
+        <v>1.398</v>
       </c>
       <c r="D36">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E36">
-        <v>2.987</v>
+        <v>3.044</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.3847e-02</t>
+          <t>1.9998e-02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1596,25 +1596,25 @@
         </is>
       </c>
       <c r="B37">
-        <v>7.781</v>
+        <v>5.662</v>
       </c>
       <c r="C37">
-        <v>2.581</v>
+        <v>2.148</v>
       </c>
       <c r="D37">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E37">
-        <v>3.015</v>
+        <v>2.636</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.1891e-02</t>
+          <t>6.4421e-02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1630,20 +1630,20 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.395</v>
+        <v>3.967</v>
       </c>
       <c r="C38">
-        <v>0.725</v>
+        <v>0.657</v>
       </c>
       <c r="D38">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E38">
-        <v>6.066</v>
+        <v>6.038</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.6216e-08</t>
+          <t>1.8608e-08</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1664,20 +1664,20 @@
         </is>
       </c>
       <c r="B39">
-        <v>3.235</v>
+        <v>1.407</v>
       </c>
       <c r="C39">
-        <v>2.87</v>
+        <v>2.442</v>
       </c>
       <c r="D39">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E39">
-        <v>1.127</v>
+        <v>0.576</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.9217e-01</t>
+          <t>9.7855e-01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1698,20 +1698,20 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.151</v>
+        <v>-0.288</v>
       </c>
       <c r="C40">
-        <v>1.45</v>
+        <v>1.336</v>
       </c>
       <c r="D40">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E40">
-        <v>-0.104</v>
+        <v>-0.215</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>9.9997e-01</t>
+          <t>9.9952e-01</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1732,20 +1732,20 @@
         </is>
       </c>
       <c r="B41">
-        <v>-3.387</v>
+        <v>-1.695</v>
       </c>
       <c r="C41">
-        <v>2.541</v>
+        <v>2.108</v>
       </c>
       <c r="D41">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E41">
-        <v>-1.333</v>
+        <v>-0.804</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.7065e-01</t>
+          <t>9.2947e-01</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1766,20 +1766,20 @@
         </is>
       </c>
       <c r="B42">
-        <v>-2.676</v>
+        <v>-3.105</v>
       </c>
       <c r="C42">
-        <v>0.553</v>
+        <v>0.514</v>
       </c>
       <c r="D42">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E42">
-        <v>-4.844</v>
+        <v>-6.04</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.3729e-05</t>
+          <t>1.8333e-08</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1800,20 +1800,20 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.7</v>
+        <v>-0.955</v>
       </c>
       <c r="C43">
-        <v>0.709</v>
+        <v>0.658</v>
       </c>
       <c r="D43">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E43">
-        <v>-0.987</v>
+        <v>-1.451</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.6129e-01</t>
+          <t>5.9487e-01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1834,25 +1834,25 @@
         </is>
       </c>
       <c r="B44">
-        <v>-2.141</v>
+        <v>-2.538</v>
       </c>
       <c r="C44">
-        <v>1.029</v>
+        <v>0.876</v>
       </c>
       <c r="D44">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E44">
-        <v>-2.08</v>
+        <v>-2.896</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.2920e-01</t>
+          <t>3.1254e-02</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -1868,20 +1868,20 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.246</v>
+        <v>-0.592</v>
       </c>
       <c r="C45">
-        <v>0.527</v>
+        <v>0.493</v>
       </c>
       <c r="D45">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E45">
-        <v>-0.467</v>
+        <v>-1.202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9.9023e-01</t>
+          <t>7.5037e-01</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1902,20 +1902,20 @@
         </is>
       </c>
       <c r="B46">
-        <v>1.976</v>
+        <v>2.15</v>
       </c>
       <c r="C46">
-        <v>0.543</v>
+        <v>0.495</v>
       </c>
       <c r="D46">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E46">
-        <v>3.641</v>
+        <v>4.339</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.5953e-03</t>
+          <t>1.4629e-04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1936,20 +1936,20 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.535</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C47">
-        <v>0.921</v>
+        <v>0.761</v>
       </c>
       <c r="D47">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E47">
-        <v>0.581</v>
+        <v>0.745</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9.7783e-01</t>
+          <t>9.4594e-01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1970,20 +1970,20 @@
         </is>
       </c>
       <c r="B48">
-        <v>2.43</v>
+        <v>2.512</v>
       </c>
       <c r="C48">
-        <v>0.258</v>
+        <v>0.233</v>
       </c>
       <c r="D48">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E48">
-        <v>9.403</v>
+        <v>10.787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.6522e-12</t>
+          <t>4.6529e-11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2004,20 +2004,20 @@
         </is>
       </c>
       <c r="B49">
-        <v>-1.441</v>
+        <v>-1.583</v>
       </c>
       <c r="C49">
-        <v>1.024</v>
+        <v>0.866</v>
       </c>
       <c r="D49">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E49">
-        <v>-1.408</v>
+        <v>-1.828</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.2287e-01</t>
+          <t>3.5730e-01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2038,20 +2038,20 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.454</v>
+        <v>0.363</v>
       </c>
       <c r="C50">
-        <v>0.517</v>
+        <v>0.474</v>
       </c>
       <c r="D50">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E50">
-        <v>0.878</v>
+        <v>0.766</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.0515e-01</t>
+          <t>9.4042e-01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2072,20 +2072,20 @@
         </is>
       </c>
       <c r="B51">
-        <v>1.895</v>
+        <v>1.945</v>
       </c>
       <c r="C51">
-        <v>0.906</v>
+        <v>0.747</v>
       </c>
       <c r="D51">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E51">
-        <v>2.091</v>
+        <v>2.603</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.2445e-01</t>
+          <t>7.0165e-02</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2106,20 +2106,20 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.023</v>
+        <v>0.081</v>
       </c>
       <c r="C52">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
       <c r="D52">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E52">
-        <v>0.081</v>
+        <v>0.306</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.9999e-01</t>
+          <t>9.9810e-01</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2140,20 +2140,20 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.556</v>
+        <v>-0.586</v>
       </c>
       <c r="C53">
-        <v>0.367</v>
+        <v>0.34</v>
       </c>
       <c r="D53">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E53">
-        <v>-1.515</v>
+        <v>-1.725</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5.5305e-01</t>
+          <t>4.1855e-01</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2174,20 +2174,20 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.464</v>
+        <v>0.146</v>
       </c>
       <c r="C54">
-        <v>0.532</v>
+        <v>0.452</v>
       </c>
       <c r="D54">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E54">
-        <v>0.872</v>
+        <v>0.322</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.0725e-01</t>
+          <t>9.9768e-01</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2208,20 +2208,20 @@
         </is>
       </c>
       <c r="B55">
-        <v>-1.649</v>
+        <v>-1.557</v>
       </c>
       <c r="C55">
-        <v>0.273</v>
+        <v>0.255</v>
       </c>
       <c r="D55">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E55">
-        <v>-6.049</v>
+        <v>-6.118</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.7970e-08</t>
+          <t>1.1364e-08</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2242,20 +2242,20 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.579</v>
+        <v>-0.668</v>
       </c>
       <c r="C56">
-        <v>0.281</v>
+        <v>0.256</v>
       </c>
       <c r="D56">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E56">
-        <v>-2.062</v>
+        <v>-2.61</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.3735e-01</t>
+          <t>6.8928e-02</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2276,20 +2276,20 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.441</v>
+        <v>0.064</v>
       </c>
       <c r="C57">
-        <v>0.476</v>
+        <v>0.393</v>
       </c>
       <c r="D57">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E57">
-        <v>0.926</v>
+        <v>0.164</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8.8671e-01</t>
+          <t>9.9984e-01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2310,20 +2310,20 @@
         </is>
       </c>
       <c r="B58">
-        <v>-1.672</v>
+        <v>-1.638</v>
       </c>
       <c r="C58">
-        <v>0.134</v>
+        <v>0.12</v>
       </c>
       <c r="D58">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E58">
-        <v>-12.51</v>
+        <v>-13.626</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.6044e-12</t>
+          <t>4.6484e-11</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2344,20 +2344,20 @@
         </is>
       </c>
       <c r="B59">
-        <v>1.02</v>
+        <v>0.732</v>
       </c>
       <c r="C59">
-        <v>0.529</v>
+        <v>0.447</v>
       </c>
       <c r="D59">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E59">
-        <v>1.926</v>
+        <v>1.638</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.0373e-01</t>
+          <t>4.7319e-01</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2378,20 +2378,20 @@
         </is>
       </c>
       <c r="B60">
-        <v>-1.093</v>
+        <v>-0.971</v>
       </c>
       <c r="C60">
-        <v>0.267</v>
+        <v>0.245</v>
       </c>
       <c r="D60">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E60">
-        <v>-4.088</v>
+        <v>-3.97</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.3766e-04</t>
+          <t>7.0932e-04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2412,20 +2412,20 @@
         </is>
       </c>
       <c r="B61">
-        <v>-2.113</v>
+        <v>-1.703</v>
       </c>
       <c r="C61">
-        <v>0.469</v>
+        <v>0.386</v>
       </c>
       <c r="D61">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E61">
-        <v>-4.508</v>
+        <v>-4.413</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6.8428e-05</t>
+          <t>1.0482e-04</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2446,20 +2446,20 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.176</v>
+        <v>0.319</v>
       </c>
       <c r="C62">
-        <v>0.462</v>
+        <v>0.433</v>
       </c>
       <c r="D62">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E62">
-        <v>0.381</v>
+        <v>0.737</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>9.9555e-01</t>
+          <t>9.4772e-01</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2480,25 +2480,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>-1.584</v>
+        <v>-1.71</v>
       </c>
       <c r="C63">
-        <v>0.593</v>
+        <v>0.554</v>
       </c>
       <c r="D63">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E63">
-        <v>-2.672</v>
+        <v>-3.085</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.8637e-02</t>
+          <t>1.7568e-02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2514,20 +2514,20 @@
         </is>
       </c>
       <c r="B64">
-        <v>-1.723</v>
+        <v>-1.3</v>
       </c>
       <c r="C64">
-        <v>0.86</v>
+        <v>0.738</v>
       </c>
       <c r="D64">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E64">
-        <v>-2.002</v>
+        <v>-1.763</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.6528e-01</t>
+          <t>3.9572e-01</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2548,20 +2548,20 @@
         </is>
       </c>
       <c r="B65">
-        <v>-1.768</v>
+        <v>-1.586</v>
       </c>
       <c r="C65">
-        <v>0.441</v>
+        <v>0.415</v>
       </c>
       <c r="D65">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E65">
-        <v>-4.013</v>
+        <v>-3.822</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.9902e-04</t>
+          <t>1.2859e-03</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2582,20 +2582,20 @@
         </is>
       </c>
       <c r="B66">
-        <v>-1.76</v>
+        <v>-2.029</v>
       </c>
       <c r="C66">
-        <v>0.454</v>
+        <v>0.417</v>
       </c>
       <c r="D66">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E66">
-        <v>-3.879</v>
+        <v>-4.865</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.0301e-03</t>
+          <t>1.2188e-05</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2616,20 +2616,20 @@
         </is>
       </c>
       <c r="B67">
-        <v>-1.899</v>
+        <v>-1.619</v>
       </c>
       <c r="C67">
-        <v>0.769</v>
+        <v>0.641</v>
       </c>
       <c r="D67">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E67">
-        <v>-2.468</v>
+        <v>-2.527</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9.8552e-02</t>
+          <t>8.5147e-02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2650,20 +2650,20 @@
         </is>
       </c>
       <c r="B68">
-        <v>-1.944</v>
+        <v>-1.905</v>
       </c>
       <c r="C68">
-        <v>0.216</v>
+        <v>0.196</v>
       </c>
       <c r="D68">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E68">
-        <v>-8.997999999999999</v>
+        <v>-9.717000000000001</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.6489e-12</t>
+          <t>4.6532e-11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.138</v>
+        <v>0.409</v>
       </c>
       <c r="C69">
-        <v>0.856</v>
+        <v>0.729</v>
       </c>
       <c r="D69">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E69">
-        <v>-0.162</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>9.9985e-01</t>
+          <t>9.8045e-01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2718,20 +2718,20 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.184</v>
+        <v>0.124</v>
       </c>
       <c r="C70">
-        <v>0.432</v>
+        <v>0.399</v>
       </c>
       <c r="D70">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E70">
-        <v>-0.425</v>
+        <v>0.311</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>9.9320e-01</t>
+          <t>9.9797e-01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2752,20 +2752,20 @@
         </is>
       </c>
       <c r="B71">
-        <v>-0.045</v>
+        <v>-0.285</v>
       </c>
       <c r="C71">
-        <v>0.758</v>
+        <v>0.629</v>
       </c>
       <c r="D71">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E71">
-        <v>-0.06</v>
+        <v>-0.454</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.9126e-01</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2786,20 +2786,20 @@
         </is>
       </c>
       <c r="B72">
-        <v>-7.442</v>
+        <v>-7.013</v>
       </c>
       <c r="C72">
-        <v>1.006</v>
+        <v>0.913</v>
       </c>
       <c r="D72">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E72">
-        <v>-7.4</v>
+        <v>-7.68</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.7907e-12</t>
+          <t>4.6765e-11</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2820,20 +2820,20 @@
         </is>
       </c>
       <c r="B73">
-        <v>-3.705</v>
+        <v>-4.5</v>
       </c>
       <c r="C73">
-        <v>1.291</v>
+        <v>1.169</v>
       </c>
       <c r="D73">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E73">
-        <v>-2.869</v>
+        <v>-3.848</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.3894e-02</t>
+          <t>1.1590e-03</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2854,20 +2854,20 @@
         </is>
       </c>
       <c r="B74">
-        <v>-4.157</v>
+        <v>-3.893</v>
       </c>
       <c r="C74">
-        <v>1.874</v>
+        <v>1.557</v>
       </c>
       <c r="D74">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E74">
-        <v>-2.218</v>
+        <v>-2.501</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1.7330e-01</t>
+          <t>9.0809e-02</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2888,20 +2888,20 @@
         </is>
       </c>
       <c r="B75">
-        <v>-4.764</v>
+        <v>-4.541</v>
       </c>
       <c r="C75">
-        <v>0.96</v>
+        <v>0.876</v>
       </c>
       <c r="D75">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E75">
-        <v>-4.965</v>
+        <v>-5.186</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7.4964e-06</t>
+          <t>2.3542e-06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2922,20 +2922,20 @@
         </is>
       </c>
       <c r="B76">
-        <v>3.737</v>
+        <v>2.512</v>
       </c>
       <c r="C76">
-        <v>0.988</v>
+        <v>0.88</v>
       </c>
       <c r="D76">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E76">
-        <v>3.782</v>
+        <v>2.855</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.5110e-03</t>
+          <t>3.5259e-02</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2956,20 +2956,20 @@
         </is>
       </c>
       <c r="B77">
-        <v>3.285</v>
+        <v>3.12</v>
       </c>
       <c r="C77">
-        <v>1.676</v>
+        <v>1.353</v>
       </c>
       <c r="D77">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E77">
-        <v>1.96</v>
+        <v>2.307</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.8601e-01</t>
+          <t>1.4312e-01</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2990,20 +2990,20 @@
         </is>
       </c>
       <c r="B78">
-        <v>2.678</v>
+        <v>2.472</v>
       </c>
       <c r="C78">
-        <v>0.47</v>
+        <v>0.414</v>
       </c>
       <c r="D78">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E78">
-        <v>5.692</v>
+        <v>5.975</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.4767e-07</t>
+          <t>2.7139e-08</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3024,20 +3024,20 @@
         </is>
       </c>
       <c r="B79">
-        <v>-0.452</v>
+        <v>0.608</v>
       </c>
       <c r="C79">
-        <v>1.864</v>
+        <v>1.538</v>
       </c>
       <c r="D79">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E79">
-        <v>-0.243</v>
+        <v>0.395</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9.9923e-01</t>
+          <t>9.9486e-01</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3058,20 +3058,20 @@
         </is>
       </c>
       <c r="B80">
-        <v>-1.059</v>
+        <v>-0.04</v>
       </c>
       <c r="C80">
-        <v>0.9409999999999999</v>
+        <v>0.841</v>
       </c>
       <c r="D80">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E80">
-        <v>-1.126</v>
+        <v>-0.048</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.9306e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3092,20 +3092,20 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.607</v>
+        <v>-0.648</v>
       </c>
       <c r="C81">
-        <v>1.65</v>
+        <v>1.328</v>
       </c>
       <c r="D81">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E81">
-        <v>-0.368</v>
+        <v>-0.488</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9.9609e-01</t>
+          <t>9.8848e-01</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3126,20 +3126,20 @@
         </is>
       </c>
       <c r="B82">
-        <v>-10.034</v>
+        <v>-9.438000000000001</v>
       </c>
       <c r="C82">
-        <v>1.147</v>
+        <v>1.045</v>
       </c>
       <c r="D82">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E82">
-        <v>-8.744999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.6447e-12</t>
+          <t>4.6530e-11</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3160,20 +3160,20 @@
         </is>
       </c>
       <c r="B83">
-        <v>-2.039</v>
+        <v>-2.822</v>
       </c>
       <c r="C83">
-        <v>1.473</v>
+        <v>1.339</v>
       </c>
       <c r="D83">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E83">
-        <v>-1.384</v>
+        <v>-2.108</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.3797e-01</t>
+          <t>2.1692e-01</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3194,20 +3194,20 @@
         </is>
       </c>
       <c r="B84">
-        <v>-2.862</v>
+        <v>-2.983</v>
       </c>
       <c r="C84">
-        <v>2.138</v>
+        <v>1.782</v>
       </c>
       <c r="D84">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E84">
-        <v>-1.338</v>
+        <v>-1.674</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.6716e-01</t>
+          <t>4.5018e-01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3228,20 +3228,20 @@
         </is>
       </c>
       <c r="B85">
-        <v>-1.988</v>
+        <v>-2.073</v>
       </c>
       <c r="C85">
-        <v>1.095</v>
+        <v>1.002</v>
       </c>
       <c r="D85">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E85">
-        <v>-1.816</v>
+        <v>-2.068</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3.6456e-01</t>
+          <t>2.3449e-01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3262,20 +3262,20 @@
         </is>
       </c>
       <c r="B86">
-        <v>7.995</v>
+        <v>6.616</v>
       </c>
       <c r="C86">
-        <v>1.127</v>
+        <v>1.007</v>
       </c>
       <c r="D86">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E86">
-        <v>7.092</v>
+        <v>6.567</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.1127e-11</t>
+          <t>6.9726e-10</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3296,20 +3296,20 @@
         </is>
       </c>
       <c r="B87">
-        <v>7.173</v>
+        <v>6.455</v>
       </c>
       <c r="C87">
-        <v>1.912</v>
+        <v>1.548</v>
       </c>
       <c r="D87">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E87">
-        <v>3.752</v>
+        <v>4.169</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1.6979e-03</t>
+          <t>3.0774e-04</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3330,20 +3330,20 @@
         </is>
       </c>
       <c r="B88">
-        <v>8.045999999999999</v>
+        <v>7.365</v>
       </c>
       <c r="C88">
-        <v>0.537</v>
+        <v>0.474</v>
       </c>
       <c r="D88">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E88">
-        <v>14.991</v>
+        <v>15.553</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.6044e-12</t>
+          <t>4.6484e-11</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3364,20 +3364,20 @@
         </is>
       </c>
       <c r="B89">
-        <v>-0.822</v>
+        <v>-0.161</v>
       </c>
       <c r="C89">
-        <v>2.126</v>
+        <v>1.76</v>
       </c>
       <c r="D89">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E89">
-        <v>-0.387</v>
+        <v>-0.092</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>9.9527e-01</t>
+          <t>9.9998e-01</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3398,20 +3398,20 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.051</v>
+        <v>0.749</v>
       </c>
       <c r="C90">
-        <v>1.074</v>
+        <v>0.963</v>
       </c>
       <c r="D90">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E90">
-        <v>0.048</v>
+        <v>0.778</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.3699e-01</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3432,20 +3432,20 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.873</v>
+        <v>0.911</v>
       </c>
       <c r="C91">
-        <v>1.882</v>
+        <v>1.52</v>
       </c>
       <c r="D91">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E91">
-        <v>0.464</v>
+        <v>0.599</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9.9048e-01</t>
+          <t>9.7523e-01</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3466,20 +3466,20 @@
         </is>
       </c>
       <c r="B92">
-        <v>-6.891</v>
+        <v>-6.807</v>
       </c>
       <c r="C92">
-        <v>1.338</v>
+        <v>1.271</v>
       </c>
       <c r="D92">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E92">
-        <v>-5.15</v>
+        <v>-5.354</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.8966e-06</t>
+          <t>9.5178e-07</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3500,20 +3500,20 @@
         </is>
       </c>
       <c r="B93">
-        <v>-1.677</v>
+        <v>-2.497</v>
       </c>
       <c r="C93">
-        <v>1.718</v>
+        <v>1.628</v>
       </c>
       <c r="D93">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E93">
-        <v>-0.976</v>
+        <v>-1.533</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8.6621e-01</t>
+          <t>5.4069e-01</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3534,20 +3534,20 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.113</v>
+        <v>-1.315</v>
       </c>
       <c r="C94">
-        <v>2.493</v>
+        <v>2.167</v>
       </c>
       <c r="D94">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E94">
-        <v>0.046</v>
+        <v>-0.607</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.7409e-01</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3568,20 +3568,20 @@
         </is>
       </c>
       <c r="B95">
-        <v>-2.284</v>
+        <v>-2.713</v>
       </c>
       <c r="C95">
-        <v>1.277</v>
+        <v>1.219</v>
       </c>
       <c r="D95">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E95">
-        <v>-1.789</v>
+        <v>-2.225</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.8016e-01</t>
+          <t>1.7071e-01</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3602,20 +3602,20 @@
         </is>
       </c>
       <c r="B96">
-        <v>5.214</v>
+        <v>4.31</v>
       </c>
       <c r="C96">
-        <v>1.315</v>
+        <v>1.225</v>
       </c>
       <c r="D96">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E96">
-        <v>3.966</v>
+        <v>3.517</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7.2486e-04</t>
+          <t>4.0678e-03</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3636,20 +3636,20 @@
         </is>
       </c>
       <c r="B97">
-        <v>7.004</v>
+        <v>5.493</v>
       </c>
       <c r="C97">
-        <v>2.229</v>
+        <v>1.883</v>
       </c>
       <c r="D97">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E97">
-        <v>3.142</v>
+        <v>2.917</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.4717e-02</t>
+          <t>2.9417e-02</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3670,20 +3670,20 @@
         </is>
       </c>
       <c r="B98">
-        <v>4.607</v>
+        <v>4.094</v>
       </c>
       <c r="C98">
-        <v>0.626</v>
+        <v>0.576</v>
       </c>
       <c r="D98">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E98">
-        <v>7.36</v>
+        <v>7.108</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.5137e-12</t>
+          <t>6.2836e-11</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3704,20 +3704,20 @@
         </is>
       </c>
       <c r="B99">
-        <v>1.79</v>
+        <v>1.182</v>
       </c>
       <c r="C99">
-        <v>2.48</v>
+        <v>2.141</v>
       </c>
       <c r="D99">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E99">
-        <v>0.722</v>
+        <v>0.552</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>9.5149e-01</t>
+          <t>9.8168e-01</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3738,20 +3738,20 @@
         </is>
       </c>
       <c r="B100">
-        <v>-0.608</v>
+        <v>-0.216</v>
       </c>
       <c r="C100">
-        <v>1.252</v>
+        <v>1.171</v>
       </c>
       <c r="D100">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E100">
-        <v>-0.485</v>
+        <v>-0.184</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>9.8872e-01</t>
+          <t>9.9974e-01</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3772,20 +3772,20 @@
         </is>
       </c>
       <c r="B101">
-        <v>-2.398</v>
+        <v>-1.398</v>
       </c>
       <c r="C101">
-        <v>2.195</v>
+        <v>1.848</v>
       </c>
       <c r="D101">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E101">
-        <v>-1.092</v>
+        <v>-0.756</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>8.1055e-01</t>
+          <t>9.4284e-01</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3806,20 +3806,20 @@
         </is>
       </c>
       <c r="B102">
-        <v>-8.021000000000001</v>
+        <v>-7.651</v>
       </c>
       <c r="C102">
-        <v>1.419</v>
+        <v>1.34</v>
       </c>
       <c r="D102">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E102">
-        <v>-5.652</v>
+        <v>-5.709</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.8603e-07</t>
+          <t>1.3029e-07</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3840,20 +3840,20 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.427</v>
+        <v>-0.182</v>
       </c>
       <c r="C103">
-        <v>1.822</v>
+        <v>1.716</v>
       </c>
       <c r="D103">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E103">
-        <v>-0.234</v>
+        <v>-0.106</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>9.9933e-01</t>
+          <t>9.9997e-01</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.71</v>
+        <v>-0.889</v>
       </c>
       <c r="C104">
-        <v>2.644</v>
+        <v>2.285</v>
       </c>
       <c r="D104">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E104">
-        <v>0.269</v>
+        <v>-0.389</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9.9886e-01</t>
+          <t>9.9515e-01</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3908,20 +3908,20 @@
         </is>
       </c>
       <c r="B105">
-        <v>-0.882</v>
+        <v>-0.671</v>
       </c>
       <c r="C105">
-        <v>1.354</v>
+        <v>1.285</v>
       </c>
       <c r="D105">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E105">
-        <v>-0.651</v>
+        <v>-0.522</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9.6644e-01</t>
+          <t>9.8517e-01</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3942,20 +3942,20 @@
         </is>
       </c>
       <c r="B106">
-        <v>7.594</v>
+        <v>7.468</v>
       </c>
       <c r="C106">
-        <v>1.394</v>
+        <v>1.292</v>
       </c>
       <c r="D106">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E106">
-        <v>5.446</v>
+        <v>5.782</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5.8989e-07</t>
+          <t>8.5346e-08</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3976,20 +3976,20 @@
         </is>
       </c>
       <c r="B107">
-        <v>8.731</v>
+        <v>6.761</v>
       </c>
       <c r="C107">
-        <v>2.365</v>
+        <v>1.985</v>
       </c>
       <c r="D107">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E107">
-        <v>3.693</v>
+        <v>3.406</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2.1323e-03</t>
+          <t>6.0459e-03</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4010,20 +4010,20 @@
         </is>
       </c>
       <c r="B108">
-        <v>7.139</v>
+        <v>6.98</v>
       </c>
       <c r="C108">
-        <v>0.664</v>
+        <v>0.607</v>
       </c>
       <c r="D108">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E108">
-        <v>10.754</v>
+        <v>11.496</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1.6478e-12</t>
+          <t>4.6485e-11</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="B109">
-        <v>1.138</v>
+        <v>-0.707</v>
       </c>
       <c r="C109">
-        <v>2.63</v>
+        <v>2.257</v>
       </c>
       <c r="D109">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E109">
-        <v>0.433</v>
+        <v>-0.313</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9.9272e-01</t>
+          <t>9.9791e-01</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4078,20 +4078,20 @@
         </is>
       </c>
       <c r="B110">
-        <v>-0.455</v>
+        <v>-0.488</v>
       </c>
       <c r="C110">
-        <v>1.328</v>
+        <v>1.235</v>
       </c>
       <c r="D110">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E110">
-        <v>-0.342</v>
+        <v>-0.396</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9.9706e-01</t>
+          <t>9.9484e-01</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4112,20 +4112,20 @@
         </is>
       </c>
       <c r="B111">
-        <v>-1.592</v>
+        <v>0.218</v>
       </c>
       <c r="C111">
-        <v>2.328</v>
+        <v>1.948</v>
       </c>
       <c r="D111">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E111">
-        <v>-0.6840000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>9.5999e-01</t>
+          <t>9.9996e-01</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4146,20 +4146,20 @@
         </is>
       </c>
       <c r="B112">
-        <v>-1.513</v>
+        <v>-1.533</v>
       </c>
       <c r="C112">
-        <v>0.703</v>
+        <v>0.661</v>
       </c>
       <c r="D112">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E112">
-        <v>-2.151</v>
+        <v>-2.317</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1.9907e-01</t>
+          <t>1.3973e-01</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4180,20 +4180,20 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.5639999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="C113">
-        <v>0.903</v>
+        <v>0.847</v>
       </c>
       <c r="D113">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E113">
-        <v>0.625</v>
+        <v>0.211</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9.7116e-01</t>
+          <t>9.9956e-01</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4214,20 +4214,20 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.595</v>
+        <v>-0.138</v>
       </c>
       <c r="C114">
-        <v>1.31</v>
+        <v>1.128</v>
       </c>
       <c r="D114">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E114">
-        <v>0.454</v>
+        <v>-0.122</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9.9124e-01</t>
+          <t>9.9995e-01</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4248,20 +4248,20 @@
         </is>
       </c>
       <c r="B115">
-        <v>1.146</v>
+        <v>1.167</v>
       </c>
       <c r="C115">
-        <v>0.671</v>
+        <v>0.634</v>
       </c>
       <c r="D115">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E115">
-        <v>1.708</v>
+        <v>1.84</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4.2933e-01</t>
+          <t>3.5085e-01</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4282,25 +4282,25 @@
         </is>
       </c>
       <c r="B116">
-        <v>2.077</v>
+        <v>1.711</v>
       </c>
       <c r="C116">
-        <v>0.6909999999999999</v>
+        <v>0.637</v>
       </c>
       <c r="D116">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E116">
-        <v>3.006</v>
+        <v>2.685</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2.2532e-02</t>
+          <t>5.6587e-02</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4316,20 +4316,20 @@
         </is>
       </c>
       <c r="B117">
-        <v>2.107</v>
+        <v>1.395</v>
       </c>
       <c r="C117">
-        <v>1.171</v>
+        <v>0.98</v>
       </c>
       <c r="D117">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E117">
-        <v>1.799</v>
+        <v>1.423</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3.7442e-01</t>
+          <t>6.1253e-01</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4350,20 +4350,20 @@
         </is>
       </c>
       <c r="B118">
-        <v>2.658</v>
+        <v>2.7</v>
       </c>
       <c r="C118">
-        <v>0.329</v>
+        <v>0.3</v>
       </c>
       <c r="D118">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E118">
-        <v>8.082000000000001</v>
+        <v>9.009</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1.6780e-12</t>
+          <t>4.6528e-11</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4384,20 +4384,20 @@
         </is>
       </c>
       <c r="B119">
-        <v>0.031</v>
+        <v>-0.317</v>
       </c>
       <c r="C119">
-        <v>1.303</v>
+        <v>1.114</v>
       </c>
       <c r="D119">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E119">
-        <v>0.024</v>
+        <v>-0.284</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.9857e-01</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4418,20 +4418,20 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.582</v>
+        <v>0.988</v>
       </c>
       <c r="C120">
-        <v>0.658</v>
+        <v>0.609</v>
       </c>
       <c r="D120">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E120">
-        <v>0.884</v>
+        <v>1.622</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>9.0285e-01</t>
+          <t>4.8365e-01</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4452,20 +4452,20 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.551</v>
+        <v>1.305</v>
       </c>
       <c r="C121">
-        <v>1.153</v>
+        <v>0.962</v>
       </c>
       <c r="D121">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E121">
-        <v>0.478</v>
+        <v>1.357</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9.8938e-01</t>
+          <t>6.5530e-01</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
